--- a/resource/grid.xlsx
+++ b/resource/grid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="382">
   <si>
     <t xml:space="preserve">类型</t>
   </si>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">旅游足迹</t>
   </si>
   <si>
+    <t xml:space="preserve">自我评价</t>
+  </si>
+  <si>
     <t xml:space="preserve">自我介绍</t>
   </si>
   <si>
@@ -202,13 +205,16 @@
     <t xml:space="preserve">北京市 福州市 厦门市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫穆！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">不合格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🌸我叫穆！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Aries.png:[37.22 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(217, 182, 172, .8);'&gt;我叫穆！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(217, 182, 172, .8);'&gt;我叫穆！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">标记</t>
@@ -295,13 +301,16 @@
     <t xml:space="preserve">天津市 南昌市 景德镇市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫阿鲁迪巴！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">待提升</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🌸我叫阿鲁迪巴！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Taurus.png:[38.87 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(236, 135, 192, .8);'&gt;我叫阿鲁迪巴！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(236, 135, 192, .8);'&gt;我叫阿鲁迪巴！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">有效</t>
@@ -388,13 +397,16 @@
     <t xml:space="preserve">石家庄市 济南市 青岛市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫撒加！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">合格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🌸我叫撒加！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Gemini.png:[36.10 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(237, 85, 101, .8);'&gt;我叫撒加！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(237, 85, 101, .8);'&gt;我叫撒加！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">无效</t>
@@ -478,13 +490,16 @@
     <t xml:space="preserve">太原市 郑州市 开封市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫迪斯马斯克！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">良好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🌸我叫迪斯马斯克！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Cancer.png:[39.28 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(255, 183, 77, .8);'&gt;我叫迪斯马斯克！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(255, 183, 77, .8);'&gt;我叫迪斯马斯克！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user005</t>
@@ -565,13 +580,16 @@
     <t xml:space="preserve">呼和浩特市 武汉市 黄石市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫艾欧里亚！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">优秀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🌸我叫艾欧里亚！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Leo.png:[32.04 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(255, 206, 84, .8);'&gt;我叫艾欧里亚！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(255, 206, 84, .8);'&gt;我叫艾欧里亚！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user006</t>
@@ -649,13 +667,16 @@
     <t xml:space="preserve">沈阳市 长沙市 株洲市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫沙加！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">完美</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🌸我叫沙加！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Virgo.png:[33.21 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(160, 212, 104, .8);'&gt;我叫沙加！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(160, 212, 104, .8);'&gt;我叫沙加！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user007</t>
@@ -727,13 +748,13 @@
     <t xml:space="preserve">长春市 广州市 韶关市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫童虎！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">🌸我叫童虎！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Libra.png:[33.33 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(72, 207, 173, .8);'&gt;我叫童虎！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(72, 207, 173, .8);'&gt;我叫童虎！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user008</t>
@@ -808,13 +829,13 @@
     <t xml:space="preserve">哈尔滨市 南宁市 柳州市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫米罗！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">🌸我叫米罗！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Scorpion.png:[38.02 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(79, 193, 233, .8);'&gt;我叫米罗！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(79, 193, 233, .8);'&gt;我叫米罗！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user009</t>
@@ -889,13 +910,13 @@
     <t xml:space="preserve">上海市 海口市 三亚市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫艾俄洛斯！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">🌸我叫艾俄洛斯！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Sagittarius.png:[34.38 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(93, 156, 236, .8);'&gt;我叫艾俄洛斯！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(93, 156, 236, .8);'&gt;我叫艾俄洛斯！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user010</t>
@@ -970,13 +991,13 @@
     <t xml:space="preserve">南京市 万州区 涪陵区 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫修罗！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">🌸我叫修罗！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Capricorn.png:[35.71 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(172, 146, 236, .8);'&gt;我叫修罗！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(172, 146, 236, .8);'&gt;我叫修罗！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user011</t>
@@ -1051,13 +1072,13 @@
     <t xml:space="preserve">杭州市 成都市 自贡市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫卡妙！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">🌸我叫卡妙！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Aquarius.png:[36.21 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(101, 109, 120, .8);'&gt;我叫卡妙！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(101, 109, 120, .8);'&gt;我叫卡妙！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">user012</t>
@@ -1132,13 +1153,13 @@
     <t xml:space="preserve">合肥市 贵阳市 六盘水市 </t>
   </si>
   <si>
-    <t xml:space="preserve">我叫阿布罗狄！这里是我的自我介绍哦~</t>
+    <t xml:space="preserve">🌸我叫阿布罗狄！这里是我的自我介绍哦~</t>
   </si>
   <si>
     <t xml:space="preserve">img/temp/Picses.png:[39.42 KB]</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(204, 209, 217, .8);'&gt;我叫阿布罗狄！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
+    <t xml:space="preserve">🌌&lt;strong&gt;&lt;span style='color: rgb(0, 0, 0); background-color: rgb(204, 209, 217, .8);'&gt;我叫阿布罗狄！这里是我的自我介绍哦~&lt;/span&gt;&lt;/strong&gt;</t>
   </si>
 </sst>
 </file>
@@ -1203,47 +1224,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" xSplit="1" ySplit="1" topLeftCell="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr x14ac:dyDescent="0.25" defaultRowHeight="15"/>
+  <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="40.005"/>
-    <col min="2" max="2" customWidth="1" width="11.43357142857143"/>
-    <col min="3" max="3" customWidth="1" width="14.290714285714287"/>
-    <col min="4" max="4" customWidth="1" width="15.719285714285713"/>
-    <col min="5" max="5" customWidth="1" width="10.005"/>
-    <col min="6" max="6" customWidth="1" width="8.576428571428572"/>
-    <col min="7" max="7" customWidth="1" width="10.005"/>
-    <col min="8" max="8" customWidth="1" width="11.43357142857143"/>
-    <col min="9" max="9" customWidth="1" width="10.005"/>
-    <col min="10" max="10" customWidth="1" width="15.719285714285713"/>
-    <col min="11" max="11" customWidth="1" width="15.719285714285713"/>
-    <col min="12" max="12" customWidth="1" width="21.433571428571426"/>
-    <col min="13" max="13" customWidth="1" width="20.005"/>
-    <col min="14" max="14" customWidth="1" width="35.71928571428572"/>
-    <col min="15" max="15" customWidth="1" width="14.290714285714287"/>
-    <col min="16" max="16" customWidth="1" width="14.290714285714287"/>
-    <col min="17" max="17" customWidth="1" width="8.576428571428572"/>
-    <col min="18" max="18" customWidth="1" width="30.005"/>
-    <col min="19" max="19" customWidth="1" width="18.576428571428572"/>
-    <col min="20" max="20" customWidth="1" width="12.862142857142858"/>
-    <col min="21" max="21" customWidth="1" width="15.719285714285713"/>
-    <col min="22" max="22" customWidth="1" width="17.14785714285714"/>
-    <col min="23" max="23" customWidth="1" width="25.719285714285714"/>
-    <col min="24" max="24" customWidth="1" width="27.14785714285714"/>
-    <col min="25" max="25" customWidth="1" width="12.862142857142858"/>
-    <col min="26" max="26" customWidth="1" width="21.433571428571426"/>
-    <col min="27" max="27" customWidth="1" width="12.862142857142858"/>
-    <col min="28" max="28" customWidth="1" width="12.862142857142858"/>
-    <col min="29" max="29" customWidth="1" width="24.290714285714284"/>
-    <col min="30" max="30" customWidth="1" width="28.576428571428572"/>
-    <col min="31" max="31" customWidth="1" width="41.43357142857143"/>
-    <col min="32" max="32" customWidth="1" width="17.14785714285714"/>
-    <col min="33" max="33" customWidth="1" width="41.43357142857143"/>
+    <col min="1" max="1" customWidth="1" width="39.9296875"/>
+    <col min="2" max="2" customWidth="1" width="11.358258928571429"/>
+    <col min="3" max="3" customWidth="1" width="14.215401785714286"/>
+    <col min="4" max="4" customWidth="1" width="15.643973214285714"/>
+    <col min="5" max="5" customWidth="1" width="9.9296875"/>
+    <col min="6" max="6" customWidth="1" width="8.501116071428571"/>
+    <col min="7" max="7" customWidth="1" width="9.9296875"/>
+    <col min="8" max="8" customWidth="1" width="11.358258928571429"/>
+    <col min="9" max="9" customWidth="1" width="9.9296875"/>
+    <col min="10" max="10" customWidth="1" width="15.643973214285714"/>
+    <col min="11" max="11" customWidth="1" width="15.643973214285714"/>
+    <col min="12" max="12" customWidth="1" width="21.358258928571427"/>
+    <col min="13" max="13" customWidth="1" width="19.9296875"/>
+    <col min="14" max="14" customWidth="1" width="35.643973214285715"/>
+    <col min="15" max="15" customWidth="1" width="14.215401785714286"/>
+    <col min="16" max="16" customWidth="1" width="14.215401785714286"/>
+    <col min="17" max="17" customWidth="1" width="8.501116071428571"/>
+    <col min="18" max="18" customWidth="1" width="29.9296875"/>
+    <col min="19" max="19" customWidth="1" width="18.501116071428573"/>
+    <col min="20" max="20" customWidth="1" width="12.786830357142858"/>
+    <col min="21" max="21" customWidth="1" width="15.643973214285714"/>
+    <col min="22" max="22" customWidth="1" width="17.072544642857142"/>
+    <col min="23" max="23" customWidth="1" width="25.643973214285715"/>
+    <col min="24" max="24" customWidth="1" width="27.072544642857142"/>
+    <col min="25" max="25" customWidth="1" width="12.786830357142858"/>
+    <col min="26" max="26" customWidth="1" width="21.358258928571427"/>
+    <col min="27" max="27" customWidth="1" width="12.786830357142858"/>
+    <col min="28" max="28" customWidth="1" width="12.786830357142858"/>
+    <col min="29" max="29" customWidth="1" width="24.215401785714285"/>
+    <col min="30" max="30" customWidth="1" width="28.501116071428573"/>
+    <col min="31" max="31" customWidth="1" width="12.786830357142858"/>
+    <col min="32" max="32" customWidth="1" width="44.215401785714285"/>
+    <col min="33" max="33" customWidth="1" width="17.072544642857142"/>
+    <col min="34" max="34" customWidth="1" width="44.215401785714285"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
@@ -1346,1217 +1368,1256 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG2" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="X3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AA3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AC3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AD3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="X4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Z4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AC4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AD4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AF4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG4" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="R5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="V5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="W5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="X5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Y5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Z5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AA5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AB5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AC5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AD5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AE5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AF5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG5" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="N6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="R6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="S6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="T6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="U6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="V6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="W6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="X6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Z6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AA6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AB6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AC6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AD6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AE6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AF6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AG6" t="s">
-        <v>185</v>
+        <v>190</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="R7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="S7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="T7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="U7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="V7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="W7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="X7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Y7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Z7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AA7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AB7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AC7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AD7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AE7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AF7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AG7" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K8" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L8" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M8" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="O8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q8" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="R8" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="U8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="V8" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="W8" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="X8" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Y8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Z8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB8" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AC8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AD8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AE8" t="s">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="AF8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AG8" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="K9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="O9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="R9" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="U9" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="V9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="W9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="X9" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Y9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Z9" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AA9" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AB9" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AC9" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AD9" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AE9" t="s">
-        <v>264</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AG9" t="s">
-        <v>266</v>
+        <v>272</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L10" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N10" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O10" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="P10" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q10" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="R10" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="S10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T10" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="U10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="W10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="X10" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Y10" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Z10" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AA10" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AC10" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AD10" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AE10" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="AF10" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AG10" t="s">
-        <v>293</v>
+        <v>299</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K11" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M11" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="N11" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="O11" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P11" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q11" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="R11" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="S11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="U11" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="V11" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="W11" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="X11" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Y11" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Z11" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AA11" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AB11" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AC11" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AD11" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AE11" t="s">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="AF11" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AG11" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H12" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K12" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L12" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M12" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N12" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="O12" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P12" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q12" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="R12" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="S12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="T12" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="U12" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="V12" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="W12" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="X12" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Y12" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Z12" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AA12" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AB12" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AC12" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AD12" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AE12" t="s">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="AF12" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG12" t="s">
-        <v>347</v>
+        <v>353</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K13" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L13" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M13" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N13" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="O13" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P13" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q13" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="R13" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="S13" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="T13" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="U13" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="V13" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="W13" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="X13" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Y13" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Z13" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AA13" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AB13" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AC13" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AD13" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AE13" t="s">
-        <v>372</v>
+        <v>217</v>
       </c>
       <c r="AF13" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AG13" t="s">
-        <v>374</v>
+        <v>380</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
